--- a/01_Amazon_Registration Functionality_Project.xlsx
+++ b/01_Amazon_Registration Functionality_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutomationTesting\Assignments\Manual Assignments\Manual Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8DBE09-9644-4343-A84F-7FA9987DF575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B922E38-A8AA-48C7-A860-D3410328856A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="790" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2972,7 +2972,7 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -3058,7 +3058,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="58"/>
+      <c r="A11" s="58">
+        <v>1</v>
+      </c>
       <c r="B11" s="67" t="s">
         <v>15</v>
       </c>

--- a/01_Amazon_Registration Functionality_Project.xlsx
+++ b/01_Amazon_Registration Functionality_Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutomationTesting\Assignments\Manual Assignments\Manual Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B922E38-A8AA-48C7-A860-D3410328856A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4789C46-F76B-42A5-837F-BAFC5AA340C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="790" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="790" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="5" r:id="rId1"/>
@@ -1370,7 +1370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1491,12 +1491,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1539,9 +1698,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,23 +1737,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1695,15 +1836,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1789,6 +1924,93 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2854,100 +3076,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="60" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="60" customWidth="1"/>
-    <col min="3" max="4" width="30.85546875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="14" style="60" customWidth="1"/>
-    <col min="6" max="6" width="96.5703125" style="60" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="60"/>
+    <col min="1" max="1" width="16.28515625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="54" customWidth="1"/>
+    <col min="3" max="4" width="30.85546875" style="54" customWidth="1"/>
+    <col min="5" max="5" width="14" style="54" customWidth="1"/>
+    <col min="6" max="6" width="96.5703125" style="54" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="89"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="81"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C4" s="81"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="81"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="81"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="62"/>
+      <c r="B7" s="56"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="62"/>
+      <c r="B8" s="56"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="136.5" customHeight="1">
-      <c r="A10" s="82">
+      <c r="A10" s="74">
         <v>1</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="79" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2971,167 +3193,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="58" style="52" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="52" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="18.42578125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="58" style="46" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="94"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="94"/>
+      <c r="C3" s="86"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="96"/>
+      <c r="C4" s="88"/>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B5" s="89">
         <v>1</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="90"/>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="92"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
     </row>
     <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="58">
+      <c r="A11" s="52">
         <v>1</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="59"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="57">
+      <c r="A14" s="51">
         <v>1</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3158,115 +3380,115 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="68.140625" style="47" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="47"/>
+    <col min="1" max="1" width="21.140625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" style="41" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="93"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="62" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="42" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="42" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="64" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -3274,23 +3496,23 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="63" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -3298,7 +3520,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="64" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -3306,7 +3528,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="63" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -3314,7 +3536,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="63" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -3337,9 +3559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3351,96 +3573,96 @@
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="77.7109375" customWidth="1"/>
     <col min="7" max="7" width="74.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="27" customWidth="1"/>
-    <col min="10" max="10" width="14" style="27" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="26" customWidth="1"/>
+    <col min="10" max="10" width="14" style="26" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="104" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="105">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="29"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:14" ht="150">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="107" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -3449,37 +3671,37 @@
       <c r="C3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="124" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="108"/>
     </row>
     <row r="4" spans="1:14" ht="180">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="107" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -3488,320 +3710,320 @@
       <c r="C4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="124" t="s">
         <v>86</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="195">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="120" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="124" t="s">
         <v>98</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="195">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="124" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="44"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="225">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="120" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="124" t="s">
         <v>106</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="108"/>
     </row>
     <row r="8" spans="1:14" ht="240">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="124" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="108"/>
     </row>
     <row r="9" spans="1:14" ht="225">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="124" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="10"/>
+      <c r="M9" s="108"/>
     </row>
     <row r="10" spans="1:14" ht="210">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="124" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="108"/>
     </row>
     <row r="11" spans="1:14" s="12" customFormat="1" ht="195">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="21"/>
+      <c r="M11" s="111"/>
     </row>
     <row r="12" spans="1:14" ht="150">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -3819,28 +4041,28 @@
       <c r="I12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="112"/>
     </row>
     <row r="13" spans="1:14" ht="150">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -3858,37 +4080,37 @@
       <c r="I13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="112"/>
     </row>
     <row r="14" spans="1:14" ht="150">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="35" t="s">
         <v>143</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3897,37 +4119,37 @@
       <c r="I14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="28" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="112"/>
     </row>
     <row r="15" spans="1:14" ht="150">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="35" t="s">
         <v>145</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -3936,37 +4158,37 @@
       <c r="I15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="112"/>
     </row>
     <row r="16" spans="1:14" ht="150">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="9" t="s">
         <v>147</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="35" t="s">
         <v>148</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3975,115 +4197,115 @@
       <c r="I16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="28" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="112"/>
     </row>
     <row r="17" spans="1:13" s="12" customFormat="1" ht="195">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="21"/>
+      <c r="M17" s="111"/>
     </row>
     <row r="18" spans="1:13" s="12" customFormat="1" ht="210">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="21"/>
+      <c r="M18" s="111"/>
     </row>
     <row r="19" spans="1:13" ht="165">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="9" t="s">
         <v>158</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="35" t="s">
         <v>160</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -4092,37 +4314,37 @@
       <c r="I19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="28" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="112"/>
     </row>
     <row r="20" spans="1:13" ht="165">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="9" t="s">
         <v>158</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="35" t="s">
         <v>162</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -4131,67 +4353,67 @@
       <c r="I20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="28" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="112"/>
     </row>
     <row r="21" spans="1:13" ht="240">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="112"/>
     </row>
     <row r="22" spans="1:13" ht="120">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -4203,61 +4425,61 @@
       <c r="G22" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="210">
-      <c r="A23" s="70" t="s">
+      <c r="M22" s="112"/>
+    </row>
+    <row r="23" spans="1:13" ht="210.75" thickBot="1">
+      <c r="A23" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="73" t="s">
+      <c r="J23" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="119" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4278,30 +4500,30 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="21" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" customWidth="1"/>
     <col min="4" max="4" width="94.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="85" customFormat="1">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:4" s="77" customFormat="1">
+      <c r="A1" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4396,7 +4618,7 @@
       <c r="B10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>164</v>
       </c>
       <c r="D10" s="7"/>
@@ -4408,313 +4630,313 @@
       <c r="B11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>169</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" s="12" customFormat="1" ht="409.5" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="64" t="s">
         <v>219</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="68"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="26"/>
+      <c r="A18" s="25"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="26"/>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="26"/>
+      <c r="A24" s="25"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="26"/>
+      <c r="A25" s="25"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="26"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="26"/>
+      <c r="A27" s="25"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="26"/>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="26"/>
+      <c r="A29" s="25"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="26"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="26"/>
+      <c r="A31" s="25"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="26"/>
+      <c r="A32" s="25"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="26"/>
+      <c r="A33" s="25"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="26"/>
+      <c r="A34" s="25"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="26"/>
+      <c r="A35" s="25"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="26"/>
+      <c r="A36" s="25"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="26"/>
+      <c r="A37" s="25"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="26"/>
+      <c r="A38" s="25"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="26"/>
+      <c r="A39" s="25"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="26"/>
+      <c r="A40" s="25"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="26"/>
+      <c r="A41" s="25"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="26"/>
+      <c r="A42" s="25"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="26"/>
+      <c r="A43" s="25"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="26"/>
+      <c r="A44" s="25"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="26"/>
+      <c r="A45" s="25"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="26"/>
+      <c r="A46" s="25"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="26"/>
+      <c r="A47" s="25"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="26"/>
+      <c r="A48" s="25"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="26"/>
+      <c r="A49" s="25"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="26"/>
+      <c r="A50" s="25"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="26"/>
+      <c r="A51" s="25"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="26"/>
+      <c r="A52" s="25"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="26"/>
+      <c r="A53" s="25"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="26"/>
+      <c r="A54" s="25"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="26"/>
+      <c r="A55" s="25"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="26"/>
+      <c r="A56" s="25"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="26"/>
+      <c r="A57" s="25"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="26"/>
+      <c r="A58" s="25"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="26"/>
+      <c r="A59" s="25"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="26"/>
+      <c r="A60" s="25"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="26"/>
+      <c r="A61" s="25"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="26"/>
+      <c r="A62" s="25"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="26"/>
+      <c r="A63" s="25"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="26"/>
+      <c r="A64" s="25"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="26"/>
+      <c r="A65" s="25"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="26"/>
+      <c r="A66" s="25"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="26"/>
+      <c r="A67" s="25"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="26"/>
+      <c r="A68" s="25"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="26"/>
+      <c r="A69" s="25"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="26"/>
+      <c r="A70" s="25"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="26"/>
+      <c r="A71" s="25"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="26"/>
+      <c r="A72" s="25"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="26"/>
+      <c r="A73" s="25"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="26"/>
+      <c r="A74" s="25"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="26"/>
+      <c r="A75" s="25"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="26"/>
+      <c r="A76" s="25"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="26"/>
+      <c r="A77" s="25"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="26"/>
+      <c r="A78" s="25"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="26"/>
+      <c r="A79" s="25"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="26"/>
+      <c r="A80" s="25"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="26"/>
+      <c r="A81" s="25"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="26"/>
+      <c r="A82" s="25"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="26"/>
+      <c r="A83" s="25"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="26"/>
+      <c r="A84" s="25"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="26"/>
+      <c r="A85" s="25"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="26"/>
+      <c r="A86" s="25"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="26"/>
+      <c r="A87" s="25"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="26"/>
+      <c r="A88" s="25"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="26"/>
+      <c r="A89" s="25"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="26"/>
+      <c r="A90" s="25"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="26"/>
+      <c r="A91" s="25"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="26"/>
+      <c r="A92" s="25"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="26"/>
+      <c r="A93" s="25"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="26"/>
+      <c r="A94" s="25"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="26"/>
+      <c r="A95" s="25"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="26"/>
+      <c r="A96" s="25"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="26"/>
+      <c r="A97" s="25"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="26"/>
+      <c r="A98" s="25"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="26"/>
+      <c r="A99" s="25"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="26"/>
+      <c r="A100" s="25"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="26"/>
+      <c r="A101" s="25"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="26"/>
+      <c r="A102" s="25"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="26"/>
+      <c r="A103" s="25"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="26"/>
+      <c r="A104" s="25"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="26"/>
+      <c r="A105" s="25"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="26"/>
+      <c r="A106" s="25"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="26"/>
+      <c r="A107" s="25"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="26"/>
+      <c r="A108" s="25"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="26"/>
+      <c r="A109" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4749,37 +4971,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="45" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4796,13 +5018,13 @@
       <c r="D2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="67" t="s">
         <v>182</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -4831,10 +5053,10 @@
       <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="67" t="s">
         <v>55</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -4866,10 +5088,10 @@
       <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="67" t="s">
         <v>57</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -4901,10 +5123,10 @@
       <c r="D5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="67" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -4936,22 +5158,22 @@
       <c r="D6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="20" t="s">
         <v>82</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -4971,10 +5193,10 @@
       <c r="D7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="67" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="15" t="s">
@@ -5013,10 +5235,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="98"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
@@ -5149,7 +5371,7 @@
       <c r="A4" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="66">
         <v>16</v>
       </c>
     </row>
@@ -5157,7 +5379,7 @@
       <c r="A5" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="65" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5186,37 +5408,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="57" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5256,8 +5478,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="F6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="F6" s="72"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="10" spans="1:11">
       <c r="H10" s="4"/>
